--- a/Homework1/MaxSumTest.xlsx
+++ b/Homework1/MaxSumTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55fff1f6f5cc226d/Documents/Code/COMP-272/Homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048F7195A6ED25ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257A3EE5-7CED-4531-8FED-451BBAE19FDC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048F7195A6ED25ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC394A9A-4B97-4F81-915B-834837F3DEDB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,6 +105,3861 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaxSum1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>264.74099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>284.03899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>337.887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449.62900000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>525.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>561.33500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA8A-4DFE-8673-8F5D32F9E892}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537319640"/>
+        <c:axId val="537314064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="537319640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537314064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="537314064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537319640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaxSum2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.3321999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8768000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8768000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8575999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2306000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0506999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0780000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11751399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1713999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-125D-49FE-9EFB-A78068A36119}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547904472"/>
+        <c:axId val="547901192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547904472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547901192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="547901192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547904472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaxSum3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12233092738407698"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.80155796150481184"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.24E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4009999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5870000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7960000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5120000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5950000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.691E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4339999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B8F-4E5C-AB4F-4F93E3165798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="539870968"/>
+        <c:axId val="539865720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="539870968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539865720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="539865720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539870968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaxSum4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.3300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.68E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3600000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.79E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3600000000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-443B-44FE-A471-38444D61A519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="539882120"/>
+        <c:axId val="539880480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="539882120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539880480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="539880480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539882120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C03C8C-75BC-4C61-A719-AEF109273C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA474A7-FE81-4DEE-9172-DF6ACFF0775B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4844847-FF70-4C68-8B03-414F6C4D296D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F426A6B-ECE4-473C-A6A6-D039F44EA5CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,5 +4514,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Homework1/MaxSumTest.xlsx
+++ b/Homework1/MaxSumTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55fff1f6f5cc226d/Documents/Code/COMP-272/Homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048F7195A6ED25ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC394A9A-4B97-4F81-915B-834837F3DEDB}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC1048F7195A6ED25ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B3ABA8-05E5-46D0-951F-672D08CDDCD7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>MaxSum1</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>Timing(seconds)</t>
+  </si>
+  <si>
+    <t>PC Data</t>
+  </si>
+  <si>
+    <t>ArraySize</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -546,7 +564,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14704526219936795"/>
+          <c:y val="0.18832214765100672"/>
+          <c:w val="0.80560779902512181"/>
+          <c:h val="0.73025383572019942"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1589,6 +1617,2183 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaxSumCharts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14631228643589364"/>
+          <c:y val="0.16878264714460881"/>
+          <c:w val="0.78224117268360327"/>
+          <c:h val="0.61245344568238935"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxSum1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>128.54400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143.38399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211.14599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254.96799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C84-4779-A9C3-18D5CB5B0E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxSum2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3994000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8757000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3840000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5567999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2519000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0552000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7632999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4981000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C84-4779-A9C3-18D5CB5B0E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxSum3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.22E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8900000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6099999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.61E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3899999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9500000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C84-4779-A9C3-18D5CB5B0E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxSum4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C84-4779-A9C3-18D5CB5B0E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="983293760"/>
+        <c:axId val="983306656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="983293760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983306656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="983306656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983293760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaxSum1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>128.54400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.855000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143.38399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211.14599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254.96799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>301.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4FB-40DB-9627-9D7B957304CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1026117664"/>
+        <c:axId val="1026119744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1026117664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026119744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1026119744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026117664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MaxSum2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3994000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8757000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3840000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5567999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2519000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0552000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7632999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4981000000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-A221-4394-BAD0-9177FC576963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1045453408"/>
+        <c:axId val="1045454656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1045453408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045454656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1045454656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045453408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MaxSum3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.22E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7700000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8900000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6099999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.61E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3899999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9500000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51B9-451F-94AC-EF0D9DFDA1CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1045453408"/>
+        <c:axId val="1045454656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1045453408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045454656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1045454656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045453408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MaxSum4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.27E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2572-4765-B8FA-904C411990F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1045453408"/>
+        <c:axId val="1045454656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1045453408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045454656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1045454656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045453408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1749,6 +3954,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3298,6 +5703,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3854,15 +8839,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3954,6 +8939,190 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516213C1-E8D0-43BD-BD91-572DA0F6D005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E884AD03-5F03-485E-91E5-CAC4B95765D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09F84A7-DD0F-4285-A7A8-CD14FA8C6866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5B320B-E1CA-438F-B2BC-8D27F9E0A3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9F780B-479B-4A37-B72B-CF5878C39A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4225,18 +9394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4249,8 +9419,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4275,8 +9448,23 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -4301,8 +9489,23 @@
       <c r="H3" s="1">
         <v>3.3300000000000002E-4</v>
       </c>
+      <c r="L3">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>128.54400000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.3994000000000001E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5.22E-4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.0900000000000001E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11000</v>
       </c>
@@ -4327,8 +9530,23 @@
       <c r="H4" s="1">
         <v>3.68E-4</v>
       </c>
+      <c r="L4">
+        <v>11000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>166.917</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.8757000000000001E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.7700000000000004E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.1900000000000001E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12000</v>
       </c>
@@ -4353,8 +9571,23 @@
       <c r="H5" s="1">
         <v>4.0400000000000001E-4</v>
       </c>
+      <c r="L5">
+        <v>12000</v>
+      </c>
+      <c r="M5" s="1">
+        <v>90.855000000000004</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.3840000000000002E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6.2399999999999999E-4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.27E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13000</v>
       </c>
@@ -4379,8 +9612,23 @@
       <c r="H6" s="1">
         <v>4.3600000000000003E-4</v>
       </c>
+      <c r="L6">
+        <v>13000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>114.961</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.0707E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.3799999999999999E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14000</v>
       </c>
@@ -4405,8 +9653,23 @@
       <c r="H7" s="1">
         <v>3.3100000000000002E-4</v>
       </c>
+      <c r="L7">
+        <v>14000</v>
+      </c>
+      <c r="M7" s="1">
+        <v>143.38399999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.5567999999999997E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7.6099999999999996E-4</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.4899999999999999E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15000</v>
       </c>
@@ -4431,8 +9694,23 @@
       <c r="H8" s="1">
         <v>4.2200000000000001E-4</v>
       </c>
+      <c r="L8">
+        <v>15000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>173.322</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5.2519000000000003E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7.8899999999999999E-4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.56E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16000</v>
       </c>
@@ -4457,8 +9735,23 @@
       <c r="H9" s="1">
         <v>3.79E-4</v>
       </c>
+      <c r="L9">
+        <v>16000</v>
+      </c>
+      <c r="M9" s="1">
+        <v>211.14599999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.0552000000000002E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8.61E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.7000000000000001E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17000</v>
       </c>
@@ -4483,8 +9776,23 @@
       <c r="H10" s="1">
         <v>5.6599999999999999E-4</v>
       </c>
+      <c r="L10">
+        <v>17000</v>
+      </c>
+      <c r="M10" s="1">
+        <v>254.96799999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6.7632999999999999E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9.3899999999999995E-4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.8000000000000001E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18000</v>
       </c>
@@ -4508,6 +9816,21 @@
       </c>
       <c r="H11" s="1">
         <v>4.3600000000000003E-4</v>
+      </c>
+      <c r="L11">
+        <v>18000</v>
+      </c>
+      <c r="M11" s="1">
+        <v>301.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>7.4981000000000006E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>9.9500000000000001E-4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.9000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
